--- a/Section04/Temperature/Temperature.xlsx
+++ b/Section04/Temperature/Temperature.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\R.LTWB\Section04\Temperature\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEDF5DAC-4E9C-422A-8321-961258E220C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CB7B195-ECF8-43F7-9561-90DFED36931A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D74C8291-BD6B-494D-B736-A860F4111792}"/>
   </bookViews>
@@ -16,9 +16,6 @@
     <sheet name="Composite" sheetId="3" r:id="rId1"/>
     <sheet name="TempSerieOriginal" sheetId="5" r:id="rId2"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId3"/>
-  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -40,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t>Station</t>
   </si>
@@ -84,10 +81,16 @@
     <t>Altitud, msnm</t>
   </si>
   <si>
-    <t>IDEAM TMed Composite, °C</t>
+    <t>IDEAM TMed Compuesta zonal, °C</t>
   </si>
   <si>
-    <t>CENICAFE TMed Composite, °C</t>
+    <t>CENICAFE TMed Compuesta regional, °C</t>
+  </si>
+  <si>
+    <t>Diferencia IDEAM zonal vs. CENICAFE regional, °C</t>
+  </si>
+  <si>
+    <t>Promedio</t>
   </si>
 </sst>
 </file>
@@ -309,7 +312,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -318,13 +321,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -355,6 +352,15 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -403,7 +409,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>CENICAFE TMed Composite, °C</c:v>
+                  <c:v>CENICAFE TMed Compuesta regional, °C</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -441,7 +447,216 @@
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="b"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Composite!$B$5:$B$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>650</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>700</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Composite!$D$5:$D$19</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>27.72</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>27.445</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27.169999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>26.895</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>26.619999999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>26.344999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>26.07</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>25.794999999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>25.52</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>25.244999999999997</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>24.97</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>24.695</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>24.419999999999998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>24.145</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>23.869999999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4027-48A7-946A-83BC7B6C56CD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Composite!$C$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>IDEAM TMed Compuesta zonal, °C</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
@@ -490,305 +705,108 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>Composite!$B$5:$B$18</c:f>
+              <c:f>Composite!$B$5:$B$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>100</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>200</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>300</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="7">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>400</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="9">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>500</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="11">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>600</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="13">
+                  <c:v>650</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>700</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>800</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>900</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1100</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1200</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1300</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Composite!$D$5:$D$18</c:f>
+              <c:f>Composite!$C$5:$C$19</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>33.06</c:v>
+                  <c:v>28.9</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>32.440000000000005</c:v>
+                  <c:v>28.634999999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>31.820000000000004</c:v>
+                  <c:v>28.369999999999997</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>31.200000000000003</c:v>
+                  <c:v>28.104999999999997</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>30.580000000000002</c:v>
+                  <c:v>27.84</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>29.96</c:v>
+                  <c:v>27.574999999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>29.340000000000003</c:v>
+                  <c:v>27.31</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>28.720000000000002</c:v>
+                  <c:v>27.044999999999998</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>28.1</c:v>
+                  <c:v>26.779999999999998</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>27.480000000000004</c:v>
+                  <c:v>26.514999999999997</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>26.860000000000003</c:v>
+                  <c:v>26.25</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>26.240000000000002</c:v>
+                  <c:v>25.984999999999999</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>25.620000000000005</c:v>
+                  <c:v>25.72</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>25</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-4027-48A7-946A-83BC7B6C56CD}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Composite!$C$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>IDEAM TMed Composite, °C</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="b"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Composite!$B$5:$B$18</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>600</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>700</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>800</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>900</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1100</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1200</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1300</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Composite!$C$5:$C$18</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>28.6</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>28.362000000000002</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>28.124000000000002</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>27.886000000000003</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>27.648</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>27.41</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>27.172000000000001</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>26.934000000000001</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>26.696000000000002</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>26.458000000000002</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>26.220000000000002</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>25.981999999999999</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>25.744</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>25.506</c:v>
+                  <c:v>25.454999999999998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>25.189999999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -939,7 +957,7 @@
         <c:axId val="647628896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="22"/>
+          <c:min val="23"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1011,7 +1029,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2886,15 +2904,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>135262</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>54921</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>216225</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>176841</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2964,303 +2982,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="TempSerieOriginal"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="2">
-          <cell r="B2" t="str">
-            <v>AggCompositeOrg</v>
-          </cell>
-          <cell r="G2" t="str">
-            <v>AggComposite</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3">
-            <v>15015020</v>
-          </cell>
-          <cell r="B3">
-            <v>22.183602479009998</v>
-          </cell>
-          <cell r="G3">
-            <v>22.299609773764701</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4">
-            <v>15065040</v>
-          </cell>
-          <cell r="B4">
-            <v>22.760902057548499</v>
-          </cell>
-          <cell r="G4">
-            <v>23.068095930652198</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5">
-            <v>23215060</v>
-          </cell>
-          <cell r="B5">
-            <v>23.768833021163498</v>
-          </cell>
-          <cell r="G5">
-            <v>23.842804908604901</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6">
-            <v>25025002</v>
-          </cell>
-          <cell r="B6">
-            <v>22.883120655856999</v>
-          </cell>
-          <cell r="G6">
-            <v>22.9158329164589</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7">
-            <v>25025090</v>
-          </cell>
-          <cell r="B7">
-            <v>23.447352340332799</v>
-          </cell>
-          <cell r="G7">
-            <v>23.525572679788901</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8">
-            <v>25025250</v>
-          </cell>
-          <cell r="B8">
-            <v>22.526497534488101</v>
-          </cell>
-          <cell r="G8">
-            <v>22.448104844138999</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="A9">
-            <v>25025300</v>
-          </cell>
-          <cell r="B9">
-            <v>22.999816764635298</v>
-          </cell>
-          <cell r="G9">
-            <v>22.9625261694224</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="A10">
-            <v>25025330</v>
-          </cell>
-          <cell r="B10">
-            <v>22.7800578390918</v>
-          </cell>
-          <cell r="G10">
-            <v>22.8583019477352</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="A11">
-            <v>28015030</v>
-          </cell>
-          <cell r="B11">
-            <v>23.0122785587224</v>
-          </cell>
-          <cell r="G11">
-            <v>23.164406926128802</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="A12">
-            <v>28015070</v>
-          </cell>
-          <cell r="B12">
-            <v>22.332523743764298</v>
-          </cell>
-          <cell r="G12">
-            <v>22.325478550309999</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="A13">
-            <v>28025020</v>
-          </cell>
-          <cell r="B13">
-            <v>20.483991576610801</v>
-          </cell>
-          <cell r="G13">
-            <v>20.5313205170686</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="A14">
-            <v>28025040</v>
-          </cell>
-          <cell r="B14">
-            <v>18.725838073909902</v>
-          </cell>
-          <cell r="G14">
-            <v>18.709399164111201</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="A15">
-            <v>28025070</v>
-          </cell>
-          <cell r="B15">
-            <v>23.809227892448799</v>
-          </cell>
-          <cell r="G15">
-            <v>23.7725491397246</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="A16">
-            <v>28025080</v>
-          </cell>
-          <cell r="B16">
-            <v>21.721978687421601</v>
-          </cell>
-          <cell r="G16">
-            <v>21.828896210218101</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="A17">
-            <v>28025090</v>
-          </cell>
-          <cell r="B17">
-            <v>22.309395022950799</v>
-          </cell>
-          <cell r="G17">
-            <v>22.388607716588599</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="A18">
-            <v>28025502</v>
-          </cell>
-          <cell r="B18">
-            <v>23.856692853000101</v>
-          </cell>
-          <cell r="G18">
-            <v>23.891733263169002</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="A19">
-            <v>28035010</v>
-          </cell>
-          <cell r="B19">
-            <v>23.263237073011101</v>
-          </cell>
-          <cell r="G19">
-            <v>23.356364449747399</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="A20">
-            <v>28035020</v>
-          </cell>
-          <cell r="B20">
-            <v>22.524620027636001</v>
-          </cell>
-          <cell r="G20">
-            <v>22.7066138775869</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="A21">
-            <v>28035040</v>
-          </cell>
-          <cell r="B21">
-            <v>24.228187313745298</v>
-          </cell>
-          <cell r="G21">
-            <v>24.249068409781302</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="A22">
-            <v>28035070</v>
-          </cell>
-          <cell r="B22">
-            <v>23.269032258064499</v>
-          </cell>
-          <cell r="G22">
-            <v>23.377812090490998</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="A23">
-            <v>28045020</v>
-          </cell>
-          <cell r="B23">
-            <v>21.1861432622898</v>
-          </cell>
-          <cell r="G23">
-            <v>21.8136599274041</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="A24">
-            <v>28045040</v>
-          </cell>
-          <cell r="B24">
-            <v>23.1974354910176</v>
-          </cell>
-          <cell r="G24">
-            <v>23.093503620786102</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="A25">
-            <v>29065010</v>
-          </cell>
-          <cell r="B25">
-            <v>20.843082652180399</v>
-          </cell>
-          <cell r="G25">
-            <v>21.297965941859399</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="A26">
-            <v>29065020</v>
-          </cell>
-          <cell r="B26">
-            <v>22.3451927547802</v>
-          </cell>
-          <cell r="G26">
-            <v>22.3455782511259</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="A27">
-            <v>29065030</v>
-          </cell>
-          <cell r="B27">
-            <v>21.766276021277001</v>
-          </cell>
-          <cell r="G27">
-            <v>21.946316725297301</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3560,10 +3281,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42BDC918-CF30-4C77-9981-503CC58D1339}">
-  <dimension ref="B2:D19"/>
+  <dimension ref="B2:E21"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.8" x14ac:dyDescent="0.3"/>
@@ -3571,229 +3292,318 @@
     <col min="1" max="1" width="2.77734375" style="2" customWidth="1"/>
     <col min="2" max="2" width="8.88671875" style="3"/>
     <col min="3" max="4" width="15.77734375" style="3" customWidth="1"/>
-    <col min="5" max="5" width="2.77734375" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="2"/>
+    <col min="5" max="5" width="19.21875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="2.77734375" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B2" s="15" t="s">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B2" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="13">
-        <v>28.6</v>
-      </c>
-      <c r="D2" s="14">
-        <v>33.06</v>
-      </c>
-    </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B3" s="16" t="s">
+      <c r="C2" s="11">
+        <v>28.9</v>
+      </c>
+      <c r="D2" s="11">
+        <v>27.72</v>
+      </c>
+      <c r="E2" s="12"/>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B3" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="8">
-        <v>-2.3800000000000002E-3</v>
-      </c>
-      <c r="D3" s="9">
-        <v>-6.1999999999999998E-3</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4" ht="33.6" x14ac:dyDescent="0.3">
-      <c r="B4" s="10" t="s">
+      <c r="C3" s="6">
+        <v>-5.3E-3</v>
+      </c>
+      <c r="D3" s="6">
+        <v>-5.4999999999999997E-3</v>
+      </c>
+      <c r="E3" s="7"/>
+    </row>
+    <row r="4" spans="2:5" ht="50.4" x14ac:dyDescent="0.3">
+      <c r="B4" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="9" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B5" s="5">
+      <c r="E4" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B5" s="4">
         <v>0</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="15">
         <f>$C$3*B5 + $C$2</f>
-        <v>28.6</v>
-      </c>
-      <c r="D5" s="6">
+        <v>28.9</v>
+      </c>
+      <c r="D5" s="15">
         <f>$D$2+$D$3*B5</f>
-        <v>33.06</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B6" s="5">
+        <v>27.72</v>
+      </c>
+      <c r="E5" s="16">
+        <f>C5-D5</f>
+        <v>1.1799999999999997</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B6" s="4">
+        <v>50</v>
+      </c>
+      <c r="C6" s="15">
+        <f t="shared" ref="C6:C18" si="0">$C$3*B6 + $C$2</f>
+        <v>28.634999999999998</v>
+      </c>
+      <c r="D6" s="15">
+        <f t="shared" ref="D6:E18" si="1">$D$2+$D$3*B6</f>
+        <v>27.445</v>
+      </c>
+      <c r="E6" s="16">
+        <f t="shared" ref="E6:E19" si="2">C6-D6</f>
+        <v>1.1899999999999977</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B7" s="4">
         <v>100</v>
       </c>
-      <c r="C6" s="4">
-        <f t="shared" ref="C6:C18" si="0">$C$3*B6 + $C$2</f>
-        <v>28.362000000000002</v>
-      </c>
-      <c r="D6" s="6">
-        <f t="shared" ref="D6:D18" si="1">$D$2+$D$3*B6</f>
-        <v>32.440000000000005</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B7" s="5">
+      <c r="C7" s="15">
+        <f t="shared" si="0"/>
+        <v>28.369999999999997</v>
+      </c>
+      <c r="D7" s="15">
+        <f t="shared" si="1"/>
+        <v>27.169999999999998</v>
+      </c>
+      <c r="E7" s="16">
+        <f t="shared" si="2"/>
+        <v>1.1999999999999993</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B8" s="4">
+        <v>150</v>
+      </c>
+      <c r="C8" s="15">
+        <f t="shared" si="0"/>
+        <v>28.104999999999997</v>
+      </c>
+      <c r="D8" s="15">
+        <f t="shared" si="1"/>
+        <v>26.895</v>
+      </c>
+      <c r="E8" s="16">
+        <f t="shared" si="2"/>
+        <v>1.2099999999999973</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B9" s="4">
         <v>200</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C9" s="15">
         <f t="shared" si="0"/>
-        <v>28.124000000000002</v>
-      </c>
-      <c r="D7" s="6">
+        <v>27.84</v>
+      </c>
+      <c r="D9" s="15">
         <f t="shared" si="1"/>
-        <v>31.820000000000004</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B8" s="5">
+        <v>26.619999999999997</v>
+      </c>
+      <c r="E9" s="16">
+        <f t="shared" si="2"/>
+        <v>1.2200000000000024</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B10" s="4">
+        <v>250</v>
+      </c>
+      <c r="C10" s="15">
+        <f t="shared" si="0"/>
+        <v>27.574999999999999</v>
+      </c>
+      <c r="D10" s="15">
+        <f t="shared" si="1"/>
+        <v>26.344999999999999</v>
+      </c>
+      <c r="E10" s="16">
+        <f t="shared" si="2"/>
+        <v>1.2300000000000004</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B11" s="4">
         <v>300</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C11" s="15">
         <f t="shared" si="0"/>
-        <v>27.886000000000003</v>
-      </c>
-      <c r="D8" s="6">
+        <v>27.31</v>
+      </c>
+      <c r="D11" s="15">
         <f t="shared" si="1"/>
-        <v>31.200000000000003</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B9" s="5">
+        <v>26.07</v>
+      </c>
+      <c r="E11" s="16">
+        <f t="shared" si="2"/>
+        <v>1.2399999999999984</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B12" s="4">
+        <v>350</v>
+      </c>
+      <c r="C12" s="15">
+        <f t="shared" si="0"/>
+        <v>27.044999999999998</v>
+      </c>
+      <c r="D12" s="15">
+        <f t="shared" si="1"/>
+        <v>25.794999999999998</v>
+      </c>
+      <c r="E12" s="16">
+        <f t="shared" si="2"/>
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B13" s="4">
         <v>400</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C13" s="15">
         <f t="shared" si="0"/>
-        <v>27.648</v>
-      </c>
-      <c r="D9" s="6">
+        <v>26.779999999999998</v>
+      </c>
+      <c r="D13" s="15">
         <f t="shared" si="1"/>
-        <v>30.580000000000002</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B10" s="5">
+        <v>25.52</v>
+      </c>
+      <c r="E13" s="16">
+        <f t="shared" si="2"/>
+        <v>1.259999999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B14" s="4">
+        <v>450</v>
+      </c>
+      <c r="C14" s="15">
+        <f t="shared" si="0"/>
+        <v>26.514999999999997</v>
+      </c>
+      <c r="D14" s="15">
+        <f t="shared" si="1"/>
+        <v>25.244999999999997</v>
+      </c>
+      <c r="E14" s="16">
+        <f t="shared" si="2"/>
+        <v>1.2699999999999996</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B15" s="4">
         <v>500</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C15" s="15">
         <f t="shared" si="0"/>
-        <v>27.41</v>
-      </c>
-      <c r="D10" s="6">
+        <v>26.25</v>
+      </c>
+      <c r="D15" s="15">
         <f t="shared" si="1"/>
-        <v>29.96</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B11" s="5">
+        <v>24.97</v>
+      </c>
+      <c r="E15" s="16">
+        <f t="shared" si="2"/>
+        <v>1.2800000000000011</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B16" s="4">
+        <v>550</v>
+      </c>
+      <c r="C16" s="15">
+        <f t="shared" si="0"/>
+        <v>25.984999999999999</v>
+      </c>
+      <c r="D16" s="15">
+        <f t="shared" si="1"/>
+        <v>24.695</v>
+      </c>
+      <c r="E16" s="16">
+        <f t="shared" si="2"/>
+        <v>1.2899999999999991</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B17" s="4">
         <v>600</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C17" s="15">
         <f t="shared" si="0"/>
-        <v>27.172000000000001</v>
-      </c>
-      <c r="D11" s="6">
+        <v>25.72</v>
+      </c>
+      <c r="D17" s="15">
         <f t="shared" si="1"/>
-        <v>29.340000000000003</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B12" s="5">
+        <v>24.419999999999998</v>
+      </c>
+      <c r="E17" s="16">
+        <f t="shared" si="2"/>
+        <v>1.3000000000000007</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B18" s="4">
+        <v>650</v>
+      </c>
+      <c r="C18" s="15">
+        <f t="shared" si="0"/>
+        <v>25.454999999999998</v>
+      </c>
+      <c r="D18" s="15">
+        <f t="shared" si="1"/>
+        <v>24.145</v>
+      </c>
+      <c r="E18" s="16">
+        <f t="shared" si="2"/>
+        <v>1.3099999999999987</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B19" s="4">
         <v>700</v>
       </c>
-      <c r="C12" s="4">
-        <f t="shared" si="0"/>
-        <v>26.934000000000001</v>
-      </c>
-      <c r="D12" s="6">
-        <f t="shared" si="1"/>
-        <v>28.720000000000002</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B13" s="5">
-        <v>800</v>
-      </c>
-      <c r="C13" s="4">
-        <f t="shared" si="0"/>
-        <v>26.696000000000002</v>
-      </c>
-      <c r="D13" s="6">
-        <f t="shared" si="1"/>
-        <v>28.1</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B14" s="5">
-        <v>900</v>
-      </c>
-      <c r="C14" s="4">
-        <f t="shared" si="0"/>
-        <v>26.458000000000002</v>
-      </c>
-      <c r="D14" s="6">
-        <f t="shared" si="1"/>
-        <v>27.480000000000004</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B15" s="5">
-        <v>1000</v>
-      </c>
-      <c r="C15" s="4">
-        <f t="shared" si="0"/>
-        <v>26.220000000000002</v>
-      </c>
-      <c r="D15" s="6">
-        <f t="shared" si="1"/>
-        <v>26.860000000000003</v>
-      </c>
-    </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B16" s="5">
-        <v>1100</v>
-      </c>
-      <c r="C16" s="4">
-        <f t="shared" si="0"/>
-        <v>25.981999999999999</v>
-      </c>
-      <c r="D16" s="6">
-        <f t="shared" si="1"/>
-        <v>26.240000000000002</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B17" s="5">
-        <v>1200</v>
-      </c>
-      <c r="C17" s="4">
-        <f t="shared" si="0"/>
-        <v>25.744</v>
-      </c>
-      <c r="D17" s="6">
-        <f t="shared" si="1"/>
-        <v>25.620000000000005</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B18" s="5">
-        <v>1300</v>
-      </c>
-      <c r="C18" s="4">
-        <f t="shared" si="0"/>
-        <v>25.506</v>
-      </c>
-      <c r="D18" s="6">
-        <f t="shared" si="1"/>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B19" s="7"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="9"/>
+      <c r="C19" s="15">
+        <f t="shared" ref="C19" si="3">$C$3*B19 + $C$2</f>
+        <v>25.189999999999998</v>
+      </c>
+      <c r="D19" s="15">
+        <f t="shared" ref="D19:E19" si="4">$D$2+$D$3*B19</f>
+        <v>23.869999999999997</v>
+      </c>
+      <c r="E19" s="16">
+        <f t="shared" si="2"/>
+        <v>1.3200000000000003</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B20" s="5"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="7"/>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D21" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E21" s="17">
+        <f>AVERAGE(E5:E20)</f>
+        <v>1.2499999999999996</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Section04/Temperature/Temperature.xlsx
+++ b/Section04/Temperature/Temperature.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\R.LTWB\Section04\Temperature\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CB7B195-ECF8-43F7-9561-90DFED36931A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{541A404E-BB94-467B-B4D3-4971A0618F22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D74C8291-BD6B-494D-B736-A860F4111792}"/>
   </bookViews>
@@ -312,7 +312,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -361,6 +361,12 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -2904,16 +2910,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>135262</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>141889</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>54921</xdr:rowOff>
+      <xdr:rowOff>107930</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>216225</xdr:colOff>
+      <xdr:colOff>30695</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>176841</xdr:rowOff>
+      <xdr:rowOff>17816</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3281,10 +3287,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42BDC918-CF30-4C77-9981-503CC58D1339}">
-  <dimension ref="B2:E21"/>
+  <dimension ref="B1:E20"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="Q3" sqref="Q3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.8" x14ac:dyDescent="0.3"/>
@@ -3297,6 +3303,7 @@
     <col min="7" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
+    <row r="1" spans="2:5" ht="11.4" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B2" s="13" t="s">
         <v>11</v>
@@ -3361,7 +3368,7 @@
         <v>28.634999999999998</v>
       </c>
       <c r="D6" s="15">
-        <f t="shared" ref="D6:E18" si="1">$D$2+$D$3*B6</f>
+        <f t="shared" ref="D6:D18" si="1">$D$2+$D$3*B6</f>
         <v>27.445</v>
       </c>
       <c r="E6" s="16">
@@ -3574,34 +3581,28 @@
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B19" s="4">
+      <c r="B19" s="5">
         <v>700</v>
       </c>
-      <c r="C19" s="15">
+      <c r="C19" s="18">
         <f t="shared" ref="C19" si="3">$C$3*B19 + $C$2</f>
         <v>25.189999999999998</v>
       </c>
-      <c r="D19" s="15">
-        <f t="shared" ref="D19:E19" si="4">$D$2+$D$3*B19</f>
+      <c r="D19" s="18">
+        <f t="shared" ref="D19" si="4">$D$2+$D$3*B19</f>
         <v>23.869999999999997</v>
       </c>
-      <c r="E19" s="16">
+      <c r="E19" s="19">
         <f t="shared" si="2"/>
         <v>1.3200000000000003</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B20" s="5"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="7"/>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="D21" s="3" t="s">
+      <c r="D20" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E21" s="17">
-        <f>AVERAGE(E5:E20)</f>
+      <c r="E20" s="17">
+        <f>AVERAGE(E5:E19)</f>
         <v>1.2499999999999996</v>
       </c>
     </row>

--- a/Section04/Temperature/Temperature.xlsx
+++ b/Section04/Temperature/Temperature.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\R.LTWB\Section04\Temperature\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{541A404E-BB94-467B-B4D3-4971A0618F22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EE265FF-945D-41B8-90A2-88D6B16627B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D74C8291-BD6B-494D-B736-A860F4111792}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{D74C8291-BD6B-494D-B736-A860F4111792}"/>
   </bookViews>
   <sheets>
     <sheet name="Composite" sheetId="3" r:id="rId1"/>
-    <sheet name="TempSerieOriginal" sheetId="5" r:id="rId2"/>
+    <sheet name="CompositeExt" sheetId="6" r:id="rId2"/>
+    <sheet name="TempSerieOriginal" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="18">
   <si>
     <t>Station</t>
   </si>
@@ -312,7 +313,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -368,6 +369,15 @@
     </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1171,6 +1181,1089 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>CompositeExt!$D$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CENICAFE TMed Compuesta regional, °C</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="b"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>CompositeExt!$B$5:$B$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1900</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2100</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2300</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2600</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2700</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2800</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2900</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3100</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3200</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3300</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3400</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3500</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3600</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3700</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3800</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3900</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>CompositeExt!$D$5:$D$45</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>27.72</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>27.169999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>26.619999999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>26.07</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25.52</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24.97</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24.419999999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>23.869999999999997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>23.32</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>22.77</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>22.22</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>21.669999999999998</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>21.119999999999997</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>20.57</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>20.02</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>19.47</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>18.920000000000002</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18.369999999999997</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>17.82</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>17.27</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>16.72</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>16.170000000000002</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>15.62</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>15.07</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>14.52</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>13.969999999999999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>13.42</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>12.87</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>12.32</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>11.77</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>11.219999999999999</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>10.669999999999998</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>10.120000000000001</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>9.57</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>9.02</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>8.4699999999999989</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>7.9200000000000017</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>7.370000000000001</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>6.82</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>6.27</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>5.7199999999999989</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-98A0-448F-B642-A086848B3A64}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>CompositeExt!$C$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>IDEAM TMed Compuesta zonal, °C</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>CompositeExt!$B$5:$B$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1900</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2100</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2300</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2600</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2700</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2800</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2900</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3100</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3200</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3300</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3400</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3500</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3600</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3700</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3800</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3900</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>CompositeExt!$C$5:$C$45</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>28.9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>28.369999999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27.84</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>27.31</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>26.779999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>26.25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>25.72</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>25.189999999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>24.659999999999997</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>24.13</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>23.599999999999998</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>23.07</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>22.54</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>22.009999999999998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>21.479999999999997</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>20.95</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>20.419999999999998</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>19.89</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19.36</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>18.829999999999998</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>18.299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>17.769999999999996</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>17.239999999999998</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>16.71</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>16.18</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>15.649999999999999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>15.12</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>14.589999999999998</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>14.059999999999999</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>13.53</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>12.999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>12.469999999999999</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>11.939999999999998</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>11.41</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>10.879999999999999</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>10.349999999999998</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>9.8199999999999967</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>9.2899999999999991</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>8.759999999999998</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>8.2299999999999969</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>7.6999999999999993</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-98A0-448F-B642-A086848B3A64}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="647618912"/>
+        <c:axId val="647628896"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="647618912"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="4100"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Altitud, msnm</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.46299585638658741"/>
+              <c:y val="0.92164367256342827"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="647628896"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="647628896"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr" rtl="0">
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>T, °C</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="647618912"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1000">
+          <a:latin typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+          <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
     <c:title>
       <c:overlay val="0"/>
       <c:spPr>
@@ -1887,6 +2980,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -2404,6 +3537,522 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2948,6 +4597,49 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>264981</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>46893</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>211015</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>205153</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1BABD086-D72F-4CF1-B2A9-51CCE2DE2230}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -3289,8 +4981,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42BDC918-CF30-4C77-9981-503CC58D1339}">
   <dimension ref="B1:E20"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="Q3" sqref="Q3"/>
+    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.8" x14ac:dyDescent="0.3"/>
@@ -3614,6 +5306,776 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{412F2882-B033-4228-88DC-171A74786CA3}">
+  <dimension ref="B1:E46"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="G1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.8" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="2.77734375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="8.88671875" style="3"/>
+    <col min="3" max="4" width="15.77734375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="19.21875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="2.77734375" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:5" ht="11.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B2" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="11">
+        <v>28.9</v>
+      </c>
+      <c r="D2" s="11">
+        <v>27.72</v>
+      </c>
+      <c r="E2" s="12"/>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B3" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="6">
+        <v>-5.3E-3</v>
+      </c>
+      <c r="D3" s="6">
+        <v>-5.4999999999999997E-3</v>
+      </c>
+      <c r="E3" s="7"/>
+    </row>
+    <row r="4" spans="2:5" ht="50.4" x14ac:dyDescent="0.3">
+      <c r="B4" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="22" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B5" s="4">
+        <v>0</v>
+      </c>
+      <c r="C5" s="15">
+        <f>$C$3*B5 + $C$2</f>
+        <v>28.9</v>
+      </c>
+      <c r="D5" s="15">
+        <f>$D$2+$D$3*B5</f>
+        <v>27.72</v>
+      </c>
+      <c r="E5" s="16">
+        <f>C5-D5</f>
+        <v>1.1799999999999997</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B6" s="4">
+        <v>100</v>
+      </c>
+      <c r="C6" s="15">
+        <f t="shared" ref="C6:C45" si="0">$C$3*B6 + $C$2</f>
+        <v>28.369999999999997</v>
+      </c>
+      <c r="D6" s="15">
+        <f t="shared" ref="D6:D45" si="1">$D$2+$D$3*B6</f>
+        <v>27.169999999999998</v>
+      </c>
+      <c r="E6" s="16">
+        <f t="shared" ref="E6:E45" si="2">C6-D6</f>
+        <v>1.1999999999999993</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B7" s="4">
+        <v>200</v>
+      </c>
+      <c r="C7" s="15">
+        <f t="shared" si="0"/>
+        <v>27.84</v>
+      </c>
+      <c r="D7" s="15">
+        <f t="shared" si="1"/>
+        <v>26.619999999999997</v>
+      </c>
+      <c r="E7" s="16">
+        <f t="shared" si="2"/>
+        <v>1.2200000000000024</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B8" s="4">
+        <v>300</v>
+      </c>
+      <c r="C8" s="15">
+        <f t="shared" si="0"/>
+        <v>27.31</v>
+      </c>
+      <c r="D8" s="15">
+        <f t="shared" si="1"/>
+        <v>26.07</v>
+      </c>
+      <c r="E8" s="16">
+        <f t="shared" si="2"/>
+        <v>1.2399999999999984</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B9" s="4">
+        <v>400</v>
+      </c>
+      <c r="C9" s="15">
+        <f t="shared" si="0"/>
+        <v>26.779999999999998</v>
+      </c>
+      <c r="D9" s="15">
+        <f t="shared" si="1"/>
+        <v>25.52</v>
+      </c>
+      <c r="E9" s="16">
+        <f t="shared" si="2"/>
+        <v>1.259999999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B10" s="4">
+        <v>500</v>
+      </c>
+      <c r="C10" s="15">
+        <f t="shared" si="0"/>
+        <v>26.25</v>
+      </c>
+      <c r="D10" s="15">
+        <f t="shared" si="1"/>
+        <v>24.97</v>
+      </c>
+      <c r="E10" s="16">
+        <f t="shared" si="2"/>
+        <v>1.2800000000000011</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B11" s="4">
+        <v>600</v>
+      </c>
+      <c r="C11" s="15">
+        <f t="shared" si="0"/>
+        <v>25.72</v>
+      </c>
+      <c r="D11" s="15">
+        <f t="shared" si="1"/>
+        <v>24.419999999999998</v>
+      </c>
+      <c r="E11" s="16">
+        <f t="shared" si="2"/>
+        <v>1.3000000000000007</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B12" s="4">
+        <v>700</v>
+      </c>
+      <c r="C12" s="15">
+        <f t="shared" si="0"/>
+        <v>25.189999999999998</v>
+      </c>
+      <c r="D12" s="15">
+        <f t="shared" si="1"/>
+        <v>23.869999999999997</v>
+      </c>
+      <c r="E12" s="16">
+        <f t="shared" si="2"/>
+        <v>1.3200000000000003</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B13" s="4">
+        <v>800</v>
+      </c>
+      <c r="C13" s="15">
+        <f t="shared" si="0"/>
+        <v>24.659999999999997</v>
+      </c>
+      <c r="D13" s="15">
+        <f t="shared" si="1"/>
+        <v>23.32</v>
+      </c>
+      <c r="E13" s="16">
+        <f t="shared" si="2"/>
+        <v>1.3399999999999963</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B14" s="4">
+        <v>900</v>
+      </c>
+      <c r="C14" s="15">
+        <f t="shared" si="0"/>
+        <v>24.13</v>
+      </c>
+      <c r="D14" s="15">
+        <f t="shared" si="1"/>
+        <v>22.77</v>
+      </c>
+      <c r="E14" s="16">
+        <f t="shared" si="2"/>
+        <v>1.3599999999999994</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B15" s="4">
+        <v>1000</v>
+      </c>
+      <c r="C15" s="15">
+        <f t="shared" si="0"/>
+        <v>23.599999999999998</v>
+      </c>
+      <c r="D15" s="15">
+        <f t="shared" si="1"/>
+        <v>22.22</v>
+      </c>
+      <c r="E15" s="16">
+        <f t="shared" si="2"/>
+        <v>1.379999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B16" s="4">
+        <v>1100</v>
+      </c>
+      <c r="C16" s="15">
+        <f t="shared" si="0"/>
+        <v>23.07</v>
+      </c>
+      <c r="D16" s="15">
+        <f t="shared" si="1"/>
+        <v>21.669999999999998</v>
+      </c>
+      <c r="E16" s="16">
+        <f t="shared" si="2"/>
+        <v>1.4000000000000021</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B17" s="4">
+        <v>1200</v>
+      </c>
+      <c r="C17" s="15">
+        <f t="shared" si="0"/>
+        <v>22.54</v>
+      </c>
+      <c r="D17" s="15">
+        <f t="shared" si="1"/>
+        <v>21.119999999999997</v>
+      </c>
+      <c r="E17" s="16">
+        <f t="shared" si="2"/>
+        <v>1.4200000000000017</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B18" s="4">
+        <v>1300</v>
+      </c>
+      <c r="C18" s="15">
+        <f t="shared" si="0"/>
+        <v>22.009999999999998</v>
+      </c>
+      <c r="D18" s="15">
+        <f t="shared" si="1"/>
+        <v>20.57</v>
+      </c>
+      <c r="E18" s="16">
+        <f t="shared" si="2"/>
+        <v>1.4399999999999977</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B19" s="4">
+        <v>1400</v>
+      </c>
+      <c r="C19" s="15">
+        <f t="shared" ref="C19:C45" si="3">$C$3*B19 + $C$2</f>
+        <v>21.479999999999997</v>
+      </c>
+      <c r="D19" s="15">
+        <f t="shared" ref="D19:D45" si="4">$D$2+$D$3*B19</f>
+        <v>20.02</v>
+      </c>
+      <c r="E19" s="16">
+        <f t="shared" ref="E19:E45" si="5">C19-D19</f>
+        <v>1.4599999999999973</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B20" s="4">
+        <v>1500</v>
+      </c>
+      <c r="C20" s="15">
+        <f t="shared" si="3"/>
+        <v>20.95</v>
+      </c>
+      <c r="D20" s="15">
+        <f t="shared" si="4"/>
+        <v>19.47</v>
+      </c>
+      <c r="E20" s="16">
+        <f t="shared" si="5"/>
+        <v>1.4800000000000004</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B21" s="4">
+        <v>1600</v>
+      </c>
+      <c r="C21" s="15">
+        <f t="shared" si="3"/>
+        <v>20.419999999999998</v>
+      </c>
+      <c r="D21" s="15">
+        <f t="shared" si="4"/>
+        <v>18.920000000000002</v>
+      </c>
+      <c r="E21" s="16">
+        <f t="shared" si="5"/>
+        <v>1.4999999999999964</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B22" s="4">
+        <v>1700</v>
+      </c>
+      <c r="C22" s="15">
+        <f t="shared" si="3"/>
+        <v>19.89</v>
+      </c>
+      <c r="D22" s="15">
+        <f t="shared" si="4"/>
+        <v>18.369999999999997</v>
+      </c>
+      <c r="E22" s="16">
+        <f t="shared" si="5"/>
+        <v>1.5200000000000031</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B23" s="4">
+        <v>1800</v>
+      </c>
+      <c r="C23" s="15">
+        <f t="shared" si="3"/>
+        <v>19.36</v>
+      </c>
+      <c r="D23" s="15">
+        <f t="shared" si="4"/>
+        <v>17.82</v>
+      </c>
+      <c r="E23" s="16">
+        <f t="shared" si="5"/>
+        <v>1.5399999999999991</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B24" s="4">
+        <v>1900</v>
+      </c>
+      <c r="C24" s="15">
+        <f t="shared" si="3"/>
+        <v>18.829999999999998</v>
+      </c>
+      <c r="D24" s="15">
+        <f t="shared" si="4"/>
+        <v>17.27</v>
+      </c>
+      <c r="E24" s="16">
+        <f t="shared" si="5"/>
+        <v>1.5599999999999987</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B25" s="4">
+        <v>2000</v>
+      </c>
+      <c r="C25" s="15">
+        <f t="shared" si="3"/>
+        <v>18.299999999999997</v>
+      </c>
+      <c r="D25" s="15">
+        <f t="shared" si="4"/>
+        <v>16.72</v>
+      </c>
+      <c r="E25" s="16">
+        <f t="shared" si="5"/>
+        <v>1.5799999999999983</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B26" s="4">
+        <v>2100</v>
+      </c>
+      <c r="C26" s="15">
+        <f t="shared" si="3"/>
+        <v>17.769999999999996</v>
+      </c>
+      <c r="D26" s="15">
+        <f t="shared" si="4"/>
+        <v>16.170000000000002</v>
+      </c>
+      <c r="E26" s="16">
+        <f t="shared" si="5"/>
+        <v>1.5999999999999943</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B27" s="4">
+        <v>2200</v>
+      </c>
+      <c r="C27" s="15">
+        <f t="shared" si="3"/>
+        <v>17.239999999999998</v>
+      </c>
+      <c r="D27" s="15">
+        <f t="shared" si="4"/>
+        <v>15.62</v>
+      </c>
+      <c r="E27" s="16">
+        <f t="shared" si="5"/>
+        <v>1.6199999999999992</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B28" s="4">
+        <v>2300</v>
+      </c>
+      <c r="C28" s="15">
+        <f t="shared" si="3"/>
+        <v>16.71</v>
+      </c>
+      <c r="D28" s="15">
+        <f t="shared" si="4"/>
+        <v>15.07</v>
+      </c>
+      <c r="E28" s="16">
+        <f t="shared" si="5"/>
+        <v>1.6400000000000006</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B29" s="4">
+        <v>2400</v>
+      </c>
+      <c r="C29" s="15">
+        <f t="shared" si="3"/>
+        <v>16.18</v>
+      </c>
+      <c r="D29" s="15">
+        <f t="shared" si="4"/>
+        <v>14.52</v>
+      </c>
+      <c r="E29" s="16">
+        <f t="shared" si="5"/>
+        <v>1.6600000000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B30" s="4">
+        <v>2500</v>
+      </c>
+      <c r="C30" s="15">
+        <f t="shared" si="3"/>
+        <v>15.649999999999999</v>
+      </c>
+      <c r="D30" s="15">
+        <f t="shared" si="4"/>
+        <v>13.969999999999999</v>
+      </c>
+      <c r="E30" s="16">
+        <f t="shared" si="5"/>
+        <v>1.6799999999999997</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B31" s="4">
+        <v>2600</v>
+      </c>
+      <c r="C31" s="15">
+        <f t="shared" si="3"/>
+        <v>15.12</v>
+      </c>
+      <c r="D31" s="15">
+        <f t="shared" si="4"/>
+        <v>13.42</v>
+      </c>
+      <c r="E31" s="16">
+        <f t="shared" si="5"/>
+        <v>1.6999999999999993</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B32" s="4">
+        <v>2700</v>
+      </c>
+      <c r="C32" s="15">
+        <f t="shared" si="3"/>
+        <v>14.589999999999998</v>
+      </c>
+      <c r="D32" s="15">
+        <f t="shared" si="4"/>
+        <v>12.87</v>
+      </c>
+      <c r="E32" s="16">
+        <f t="shared" si="5"/>
+        <v>1.7199999999999989</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B33" s="4">
+        <v>2800</v>
+      </c>
+      <c r="C33" s="15">
+        <f t="shared" si="3"/>
+        <v>14.059999999999999</v>
+      </c>
+      <c r="D33" s="15">
+        <f t="shared" si="4"/>
+        <v>12.32</v>
+      </c>
+      <c r="E33" s="16">
+        <f t="shared" si="5"/>
+        <v>1.7399999999999984</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B34" s="4">
+        <v>2900</v>
+      </c>
+      <c r="C34" s="15">
+        <f t="shared" si="3"/>
+        <v>13.53</v>
+      </c>
+      <c r="D34" s="15">
+        <f t="shared" si="4"/>
+        <v>11.77</v>
+      </c>
+      <c r="E34" s="16">
+        <f t="shared" si="5"/>
+        <v>1.7599999999999998</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B35" s="4">
+        <v>3000</v>
+      </c>
+      <c r="C35" s="15">
+        <f t="shared" si="3"/>
+        <v>12.999999999999998</v>
+      </c>
+      <c r="D35" s="15">
+        <f t="shared" si="4"/>
+        <v>11.219999999999999</v>
+      </c>
+      <c r="E35" s="16">
+        <f t="shared" si="5"/>
+        <v>1.7799999999999994</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B36" s="4">
+        <v>3100</v>
+      </c>
+      <c r="C36" s="15">
+        <f t="shared" si="3"/>
+        <v>12.469999999999999</v>
+      </c>
+      <c r="D36" s="15">
+        <f t="shared" si="4"/>
+        <v>10.669999999999998</v>
+      </c>
+      <c r="E36" s="16">
+        <f t="shared" si="5"/>
+        <v>1.8000000000000007</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B37" s="4">
+        <v>3200</v>
+      </c>
+      <c r="C37" s="15">
+        <f t="shared" si="3"/>
+        <v>11.939999999999998</v>
+      </c>
+      <c r="D37" s="15">
+        <f t="shared" si="4"/>
+        <v>10.120000000000001</v>
+      </c>
+      <c r="E37" s="16">
+        <f t="shared" si="5"/>
+        <v>1.8199999999999967</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B38" s="4">
+        <v>3300</v>
+      </c>
+      <c r="C38" s="15">
+        <f t="shared" si="3"/>
+        <v>11.41</v>
+      </c>
+      <c r="D38" s="15">
+        <f t="shared" si="4"/>
+        <v>9.57</v>
+      </c>
+      <c r="E38" s="16">
+        <f t="shared" si="5"/>
+        <v>1.8399999999999999</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B39" s="4">
+        <v>3400</v>
+      </c>
+      <c r="C39" s="15">
+        <f t="shared" si="3"/>
+        <v>10.879999999999999</v>
+      </c>
+      <c r="D39" s="15">
+        <f t="shared" si="4"/>
+        <v>9.02</v>
+      </c>
+      <c r="E39" s="16">
+        <f t="shared" si="5"/>
+        <v>1.8599999999999994</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B40" s="4">
+        <v>3500</v>
+      </c>
+      <c r="C40" s="15">
+        <f t="shared" si="3"/>
+        <v>10.349999999999998</v>
+      </c>
+      <c r="D40" s="15">
+        <f t="shared" si="4"/>
+        <v>8.4699999999999989</v>
+      </c>
+      <c r="E40" s="16">
+        <f t="shared" si="5"/>
+        <v>1.879999999999999</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B41" s="4">
+        <v>3600</v>
+      </c>
+      <c r="C41" s="15">
+        <f t="shared" si="3"/>
+        <v>9.8199999999999967</v>
+      </c>
+      <c r="D41" s="15">
+        <f t="shared" si="4"/>
+        <v>7.9200000000000017</v>
+      </c>
+      <c r="E41" s="16">
+        <f t="shared" si="5"/>
+        <v>1.899999999999995</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B42" s="4">
+        <v>3700</v>
+      </c>
+      <c r="C42" s="15">
+        <f t="shared" si="3"/>
+        <v>9.2899999999999991</v>
+      </c>
+      <c r="D42" s="15">
+        <f t="shared" si="4"/>
+        <v>7.370000000000001</v>
+      </c>
+      <c r="E42" s="16">
+        <f t="shared" si="5"/>
+        <v>1.9199999999999982</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B43" s="4">
+        <v>3800</v>
+      </c>
+      <c r="C43" s="15">
+        <f t="shared" si="3"/>
+        <v>8.759999999999998</v>
+      </c>
+      <c r="D43" s="15">
+        <f t="shared" si="4"/>
+        <v>6.82</v>
+      </c>
+      <c r="E43" s="16">
+        <f t="shared" si="5"/>
+        <v>1.9399999999999977</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B44" s="4">
+        <v>3900</v>
+      </c>
+      <c r="C44" s="15">
+        <f t="shared" si="3"/>
+        <v>8.2299999999999969</v>
+      </c>
+      <c r="D44" s="15">
+        <f t="shared" si="4"/>
+        <v>6.27</v>
+      </c>
+      <c r="E44" s="16">
+        <f t="shared" si="5"/>
+        <v>1.9599999999999973</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B45" s="5">
+        <v>4000</v>
+      </c>
+      <c r="C45" s="18">
+        <f t="shared" si="3"/>
+        <v>7.6999999999999993</v>
+      </c>
+      <c r="D45" s="18">
+        <f t="shared" si="4"/>
+        <v>5.7199999999999989</v>
+      </c>
+      <c r="E45" s="19">
+        <f t="shared" si="5"/>
+        <v>1.9800000000000004</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D46" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E46" s="17">
+        <f>AVERAGE(E5:E45)</f>
+        <v>1.579999999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CB6C535-9312-47D0-9BD7-112B34F1DC96}">
   <dimension ref="A1:J27"/>
   <sheetViews>
